--- a/reports/corpus.xlsx
+++ b/reports/corpus.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avitsas\Documents\playground\playground-new\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EBAA3C-422A-4D7B-BDD7-FF6B79C49619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{187E2C83-AA30-4404-8C1D-88DFE9242203}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -257,8 +235,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,10 +248,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,7 +267,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -295,27 +286,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -326,10 +331,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -356,116 +361,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,522 +448,615 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319FDA2-137D-4D14-B1AA-140122FAA04B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="70.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="159" customFormat="1" s="3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="159" customFormat="1" s="3">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="235.5" customFormat="1" s="3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="286.5" customFormat="1" s="3">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="337.5" customFormat="1" s="3">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="184.5" customFormat="1" s="3">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="261" customFormat="1" s="3">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="248.25" customFormat="1" s="3">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="197.25" customFormat="1" s="3">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="31.5">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="31.5">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="31.5">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="44.25">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.5">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="57">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="57">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="31.5">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="44.25">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="31.5">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="31.5">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="44.25">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="31.5">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="31.5">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B38" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B39" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B40" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B41" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B42" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B43" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B44" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B45" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B46" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B47" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B48" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B49" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B50" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B51" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B52" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B53" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B54" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B55" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B56" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B57" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B58" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B59" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B60" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B61" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B63" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B66" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B67" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B68" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B69" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B70" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B71" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="B72" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/corpus.xlsx
+++ b/reports/corpus.xlsx
@@ -1,20 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avitsas\Documents\playground\playground-new\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50642DDD-EF38-4464-AE1E-C66ED6BC53CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="31950" yWindow="3435" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{187E2C83-AA30-4404-8C1D-88DFE9242203}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="descriptions_measures" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
   <si>
     <t>Descriptions</t>
   </si>
@@ -235,9 +258,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,15 +270,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,14 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -286,41 +296,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -331,10 +327,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -361,82 +357,116 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,615 +478,878 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319FDA2-137D-4D14-B1AA-140122FAA04B}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="70.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="159" customFormat="1" s="3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="159" customFormat="1" s="3">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="235.5" customFormat="1" s="3">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="286.5" customFormat="1" s="3">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="337.5" customFormat="1" s="3">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="184.5" customFormat="1" s="3">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="261" customFormat="1" s="3">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="248.25" customFormat="1" s="3">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="197.25" customFormat="1" s="3">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="31.5">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="31.5">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="31.5">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="44.25">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.5">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="57">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="57">
-      <c r="A18" s="5" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="5" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="31.5">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="44.25">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="5" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="31.5">
-      <c r="A25" s="5" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="31.5">
-      <c r="A26" s="5" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="5" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="5" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="44.25">
-      <c r="A29" s="5" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="5" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="5" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="31.5">
-      <c r="A32" s="5" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="31.5">
-      <c r="A33" s="5" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="5" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="5" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="5" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="5" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="5" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="5" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="5" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="5" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="5" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="5" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="5" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="5" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="5" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="5" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="5" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="5" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="5" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="5" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="5" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="5" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="5" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="5" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="5" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="5" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="5" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="5" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="5" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="5" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="5" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="5" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="5" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="5" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="5" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="5" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="5" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="5" t="s">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="5" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="5" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C4968E-0E08-41CF-89E0-C5CBE6AF71CA}">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/corpus.xlsx
+++ b/reports/corpus.xlsx
@@ -5,16 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avitsas\Documents\playground\playground-new\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avitsas\Documents\thesis\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50642DDD-EF38-4464-AE1E-C66ED6BC53CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B925FF-E899-49AD-9980-78789CB6B40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31950" yWindow="3435" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{187E2C83-AA30-4404-8C1D-88DFE9242203}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{187E2C83-AA30-4404-8C1D-88DFE9242203}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="corpus" sheetId="1" r:id="rId1"/>
     <sheet name="descriptions_measures" sheetId="2" r:id="rId2"/>
+    <sheet name="R1" sheetId="4" r:id="rId3"/>
+    <sheet name="R2" sheetId="5" r:id="rId4"/>
+    <sheet name="R3" sheetId="6" r:id="rId5"/>
+    <sheet name="R4" sheetId="7" r:id="rId6"/>
+    <sheet name="R5" sheetId="8" r:id="rId7"/>
+    <sheet name="R6" sheetId="3" r:id="rId8"/>
+    <sheet name="R7" sheetId="9" r:id="rId9"/>
+    <sheet name="R8" sheetId="10" r:id="rId10"/>
+    <sheet name="R9" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="93">
   <si>
     <t>Descriptions</t>
   </si>
@@ -253,6 +262,72 @@
   </si>
   <si>
     <t>Observation point number (customer)</t>
+  </si>
+  <si>
+    <t>MEAS_ACCH_AMT_PAYMENT_CP</t>
+  </si>
+  <si>
+    <t>MEAS_ACCL_SETTLEMENT_PAYMENT_PREDICTION_PAYERS_AMT</t>
+  </si>
+  <si>
+    <t>MEAS_ACCL_STRAY_PAYMENT_PREDICTION_PAYERS_AMT</t>
+  </si>
+  <si>
+    <t>MEAS_APPL_AMT_APPROVED</t>
+  </si>
+  <si>
+    <t>MEAS_APPL_AMT_PAYMENTS_TOTAL</t>
+  </si>
+  <si>
+    <t>MEAS_APPL_AMT_DISCOUNT</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_AMT_INSTALMENTS_FUTURE</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_DURATION_UP_TO_6M</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_DURATION_07_TO_12M</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_DURATION_13_TO_36M</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_DURATION_37_TO_72M</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_DURATION_73_TO_108M</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_DURATION_109_PLUS</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_AMT_ENTRY_PRINCIPAL</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_AMT_ENTRY_BALANCE</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>MEAS_APPL_AMT_WRITEOFF</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_DAYS_APPROVED</t>
+  </si>
+  <si>
+    <t>MEAS_APPL_DURATION_APPROVED</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>MEAS_APLL_DAYS_REJECTED</t>
   </si>
 </sst>
 </file>
@@ -276,15 +351,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,11 +373,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -305,6 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -998,13 +1095,167 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99294B7E-0804-4329-AB8D-4885E2EC85E2}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94D4A56-ED64-4A15-A3F6-A8011B4A799E}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C4968E-0E08-41CF-89E0-C5CBE6AF71CA}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1352,4 +1603,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3823986B-E9F6-4826-9D74-B16FD2828C7B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF065B6-A3EC-4C22-B232-59BB1EA66804}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16B6CC2-3C95-4FCE-892A-EDD1FDCD0CC5}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB38131A-F41B-4F96-9D0E-EFE8A769AF32}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B6EA5A-9FC2-4084-A707-EDABA2BBDC06}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EB647E-4190-464B-8029-7FFD2C4C16EC}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C645274-1A31-4362-812E-1DD837CAEF37}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/reports/corpus.xlsx
+++ b/reports/corpus.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avitsas\Documents\thesis\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avitsas\Documents\thesis-backup\thesis\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B925FF-E899-49AD-9980-78789CB6B40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AEFDA1-C3BB-4A68-A889-12AB60DA3953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{187E2C83-AA30-4404-8C1D-88DFE9242203}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{187E2C83-AA30-4404-8C1D-88DFE9242203}"/>
   </bookViews>
   <sheets>
     <sheet name="corpus" sheetId="1" r:id="rId1"/>
     <sheet name="descriptions_measures" sheetId="2" r:id="rId2"/>
-    <sheet name="R1" sheetId="4" r:id="rId3"/>
-    <sheet name="R2" sheetId="5" r:id="rId4"/>
-    <sheet name="R3" sheetId="6" r:id="rId5"/>
-    <sheet name="R4" sheetId="7" r:id="rId6"/>
-    <sheet name="R5" sheetId="8" r:id="rId7"/>
-    <sheet name="R6" sheetId="3" r:id="rId8"/>
-    <sheet name="R7" sheetId="9" r:id="rId9"/>
-    <sheet name="R8" sheetId="10" r:id="rId10"/>
-    <sheet name="R9" sheetId="11" r:id="rId11"/>
+    <sheet name="rows" sheetId="12" r:id="rId3"/>
+    <sheet name="R1" sheetId="4" r:id="rId4"/>
+    <sheet name="R2" sheetId="5" r:id="rId5"/>
+    <sheet name="R3" sheetId="6" r:id="rId6"/>
+    <sheet name="R4" sheetId="7" r:id="rId7"/>
+    <sheet name="R5" sheetId="8" r:id="rId8"/>
+    <sheet name="R6" sheetId="3" r:id="rId9"/>
+    <sheet name="R7" sheetId="9" r:id="rId10"/>
+    <sheet name="R8" sheetId="10" r:id="rId11"/>
+    <sheet name="R9" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,8 +46,1210 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
+    <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <metadataStrings count="47">
+    <s v="Gryllos_Prod_QQuant - QQMS Monthly - QQMS Monthly - Full Application snapshots"/>
+    <s v="[External agency DCA or legal office currently assigned - MEAS_ACCH_DELINQ_DCA].[External agency  DCA  legal office managing the account - Description].&amp;[Andrikopoulos]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[70%-30% with Counter Offer]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[70%-30% without Counter Offer]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[EARTH_Settlement_65+]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[EARTH_Settlement_Small Tickets]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Had settlement]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[O_70%-30% with Counter Offer]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[O_70%-30% without Counter Offer]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[O_Out of Mandate]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[O_Preapproved]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[O_Settlement]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[O_Απαλλαγή ενεχόμενου]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[O_Διακανονισμός με Επαναδιαπραγμάτευση]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[O_Λογ εξόδων]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[O_N.3869_Προσωρινή Διαταγή]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Ο_Ν.3869_Συζήτηση]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Out of Mandate]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Preapproved]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Resch to Sett]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Settlement]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Διακανονισμός Αποπληρωμής Συνολικής Οφειλής]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Διακανονισμός με Επαναδιαπραγμάτευση]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Εφάπαξ Συμβιβαστικές Ρυθμίσεις]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Λογαριασμός εξόδων]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Ν.3869_Προστασία Α Κατοικίας]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Ν.3869_Προσωρινή Διαταγή]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Ν.3869_Συζήτηση]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].&amp;[Χρονικές Συμβιβαστικές Ρυθμίσεις]"/>
+    <s v="[Application type - MEAS_APPL_TYPE].[Application type - Description].[All].UNKNOWNMEMBER"/>
+    <s v="[External agency DCA or legal office currently assigned - MEAS_ACCH_DELINQ_DCA].[External agency  DCA  legal office managing the account - Description].&amp;[CEPAL]"/>
+    <s v="[External agency DCA or legal office currently assigned - MEAS_ACCH_DELINQ_DCA].[External agency  DCA  legal office managing the account - Description].&amp;[Charaktiniotis]"/>
+    <s v="[Application origin - MEAS_APPL_ORIGIN].[Application origin - Description].&amp;[Andrikopoulos]"/>
+    <s v="[Asset class - MEAS_ACCH_CATEG_CLASS_ASSET].[Asset class grouping - MHIE_CATEG_CLASS_ASSET].[Asset class grouping - 1].&amp;[Business loans]"/>
+    <s v="[Asset class - MEAS_ACCH_CATEG_CLASS_ASSET].[Asset class grouping - MHIE_CATEG_CLASS_ASSET].[Asset class grouping - 1].&amp;[Consumer]"/>
+    <s v="[Asset class - MEAS_ACCH_CATEG_CLASS_ASSET].[Asset class grouping - MHIE_CATEG_CLASS_ASSET].[Asset class grouping - 1].&amp;[Credit cards]"/>
+    <s v="[Asset class - MEAS_ACCH_CATEG_CLASS_ASSET].[Asset class grouping - MHIE_CATEG_CLASS_ASSET].[Asset class grouping - 1].&amp;[Expenses accounts]"/>
+    <s v="[Asset class - MEAS_ACCH_CATEG_CLASS_ASSET].[Asset class grouping - MHIE_CATEG_CLASS_ASSET].[Asset class grouping - 1].&amp;[Mortgage loans]"/>
+    <s v="[Asset class - MEAS_ACCH_CATEG_CLASS_ASSET].[Asset class grouping - MHIE_CATEG_CLASS_ASSET].[Asset class grouping - 1].&amp;[Open loans]"/>
+    <s v="[Asset class - MEAS_ACCH_CATEG_CLASS_ASSET].[Asset class grouping - MHIE_CATEG_CLASS_ASSET].[Asset class grouping - 1].&amp;[Overdraft]"/>
+    <s v="[Asset class - MEAS_ACCH_CATEG_CLASS_ASSET].[Asset class grouping - MHIE_CATEG_CLASS_ASSET].[All].UNKNOWNMEMBER"/>
+    <s v="[Application origin - MEAS_APPL_ORIGIN].[Application origin - Description].&amp;[CEPAL]"/>
+    <s v="[Application origin - MEAS_APPL_ORIGIN].[Application origin - Description].&amp;[Charaktiniotis]"/>
+    <s v="[Application origin - MEAS_APPL_ORIGIN].[Application origin - Description].&amp;[Deleti]"/>
+    <s v="[Application origin - MEAS_APPL_ORIGIN].[Application origin - Description].&amp;[Tzianini]"/>
+    <s v="[Application origin - MEAS_APPL_ORIGIN].[Application origin - Description].[All].UNKNOWNMEMBER"/>
+    <s v="[Application origin - MEAS_APPL_ORIGIN].[Application origin - Description].[All]"/>
+  </metadataStrings>
+  <mdxMetadata count="127">
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="2"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="3"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="4"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="5"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="6"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="7"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="8"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="9"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="10"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="11"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="12"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="13"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="14"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="15"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="16"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="17"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="18"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="19"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="20"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="21"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="22"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="23"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="24"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="25"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="26"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="27"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="28"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="1"/>
+        <n x="29"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="2"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="3"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="4"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="5"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="6"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="7"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="8"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="9"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="10"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="11"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="12"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="13"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="14"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="15"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="16"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="17"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="18"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="19"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="20"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="21"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="22"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="23"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="24"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="25"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="26"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="27"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="28"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="30"/>
+        <n x="29"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="2"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="3"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="4"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="5"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="6"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="7"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="8"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="9"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="10"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="11"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="12"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="13"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="14"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="15"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="16"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="17"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="18"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="19"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="20"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="21"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="22"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="23"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="24"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="25"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="26"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="27"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="28"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="31"/>
+        <n x="29"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="32"/>
+        <n x="33"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="32"/>
+        <n x="34"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="32"/>
+        <n x="35"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="32"/>
+        <n x="36"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="32"/>
+        <n x="37"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="32"/>
+        <n x="38"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="32"/>
+        <n x="39"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="32"/>
+        <n x="40"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="41"/>
+        <n x="33"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="41"/>
+        <n x="34"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="41"/>
+        <n x="35"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="41"/>
+        <n x="36"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="41"/>
+        <n x="37"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="41"/>
+        <n x="38"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="41"/>
+        <n x="39"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="41"/>
+        <n x="40"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="42"/>
+        <n x="33"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="42"/>
+        <n x="34"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="42"/>
+        <n x="35"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="42"/>
+        <n x="36"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="42"/>
+        <n x="37"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="42"/>
+        <n x="38"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="42"/>
+        <n x="39"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="42"/>
+        <n x="40"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="43"/>
+        <n x="33"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="43"/>
+        <n x="34"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="43"/>
+        <n x="35"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="43"/>
+        <n x="36"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="43"/>
+        <n x="37"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="43"/>
+        <n x="38"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="43"/>
+        <n x="39"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="43"/>
+        <n x="40"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="44"/>
+        <n x="40"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="1">
+        <n x="45"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="45"/>
+        <n x="33"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="45"/>
+        <n x="34"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="45"/>
+        <n x="35"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="45"/>
+        <n x="36"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="45"/>
+        <n x="37"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="45"/>
+        <n x="38"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="45"/>
+        <n x="39"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="2">
+        <n x="45"/>
+        <n x="40"/>
+      </t>
+    </mdx>
+    <mdx n="0" f="m">
+      <t c="1">
+        <n x="46"/>
+      </t>
+    </mdx>
+  </mdxMetadata>
+  <valueMetadata count="127">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
+    </bk>
+    <bk>
+      <rc t="1" v="22"/>
+    </bk>
+    <bk>
+      <rc t="1" v="23"/>
+    </bk>
+    <bk>
+      <rc t="1" v="24"/>
+    </bk>
+    <bk>
+      <rc t="1" v="25"/>
+    </bk>
+    <bk>
+      <rc t="1" v="26"/>
+    </bk>
+    <bk>
+      <rc t="1" v="27"/>
+    </bk>
+    <bk>
+      <rc t="1" v="28"/>
+    </bk>
+    <bk>
+      <rc t="1" v="29"/>
+    </bk>
+    <bk>
+      <rc t="1" v="30"/>
+    </bk>
+    <bk>
+      <rc t="1" v="31"/>
+    </bk>
+    <bk>
+      <rc t="1" v="32"/>
+    </bk>
+    <bk>
+      <rc t="1" v="33"/>
+    </bk>
+    <bk>
+      <rc t="1" v="34"/>
+    </bk>
+    <bk>
+      <rc t="1" v="35"/>
+    </bk>
+    <bk>
+      <rc t="1" v="36"/>
+    </bk>
+    <bk>
+      <rc t="1" v="37"/>
+    </bk>
+    <bk>
+      <rc t="1" v="38"/>
+    </bk>
+    <bk>
+      <rc t="1" v="39"/>
+    </bk>
+    <bk>
+      <rc t="1" v="40"/>
+    </bk>
+    <bk>
+      <rc t="1" v="41"/>
+    </bk>
+    <bk>
+      <rc t="1" v="42"/>
+    </bk>
+    <bk>
+      <rc t="1" v="43"/>
+    </bk>
+    <bk>
+      <rc t="1" v="44"/>
+    </bk>
+    <bk>
+      <rc t="1" v="45"/>
+    </bk>
+    <bk>
+      <rc t="1" v="46"/>
+    </bk>
+    <bk>
+      <rc t="1" v="47"/>
+    </bk>
+    <bk>
+      <rc t="1" v="48"/>
+    </bk>
+    <bk>
+      <rc t="1" v="49"/>
+    </bk>
+    <bk>
+      <rc t="1" v="50"/>
+    </bk>
+    <bk>
+      <rc t="1" v="51"/>
+    </bk>
+    <bk>
+      <rc t="1" v="52"/>
+    </bk>
+    <bk>
+      <rc t="1" v="53"/>
+    </bk>
+    <bk>
+      <rc t="1" v="54"/>
+    </bk>
+    <bk>
+      <rc t="1" v="55"/>
+    </bk>
+    <bk>
+      <rc t="1" v="56"/>
+    </bk>
+    <bk>
+      <rc t="1" v="57"/>
+    </bk>
+    <bk>
+      <rc t="1" v="58"/>
+    </bk>
+    <bk>
+      <rc t="1" v="59"/>
+    </bk>
+    <bk>
+      <rc t="1" v="60"/>
+    </bk>
+    <bk>
+      <rc t="1" v="61"/>
+    </bk>
+    <bk>
+      <rc t="1" v="62"/>
+    </bk>
+    <bk>
+      <rc t="1" v="63"/>
+    </bk>
+    <bk>
+      <rc t="1" v="64"/>
+    </bk>
+    <bk>
+      <rc t="1" v="65"/>
+    </bk>
+    <bk>
+      <rc t="1" v="66"/>
+    </bk>
+    <bk>
+      <rc t="1" v="67"/>
+    </bk>
+    <bk>
+      <rc t="1" v="68"/>
+    </bk>
+    <bk>
+      <rc t="1" v="69"/>
+    </bk>
+    <bk>
+      <rc t="1" v="70"/>
+    </bk>
+    <bk>
+      <rc t="1" v="71"/>
+    </bk>
+    <bk>
+      <rc t="1" v="72"/>
+    </bk>
+    <bk>
+      <rc t="1" v="73"/>
+    </bk>
+    <bk>
+      <rc t="1" v="74"/>
+    </bk>
+    <bk>
+      <rc t="1" v="75"/>
+    </bk>
+    <bk>
+      <rc t="1" v="76"/>
+    </bk>
+    <bk>
+      <rc t="1" v="77"/>
+    </bk>
+    <bk>
+      <rc t="1" v="78"/>
+    </bk>
+    <bk>
+      <rc t="1" v="79"/>
+    </bk>
+    <bk>
+      <rc t="1" v="80"/>
+    </bk>
+    <bk>
+      <rc t="1" v="81"/>
+    </bk>
+    <bk>
+      <rc t="1" v="82"/>
+    </bk>
+    <bk>
+      <rc t="1" v="83"/>
+    </bk>
+    <bk>
+      <rc t="1" v="84"/>
+    </bk>
+    <bk>
+      <rc t="1" v="85"/>
+    </bk>
+    <bk>
+      <rc t="1" v="86"/>
+    </bk>
+    <bk>
+      <rc t="1" v="87"/>
+    </bk>
+    <bk>
+      <rc t="1" v="88"/>
+    </bk>
+    <bk>
+      <rc t="1" v="89"/>
+    </bk>
+    <bk>
+      <rc t="1" v="90"/>
+    </bk>
+    <bk>
+      <rc t="1" v="91"/>
+    </bk>
+    <bk>
+      <rc t="1" v="92"/>
+    </bk>
+    <bk>
+      <rc t="1" v="93"/>
+    </bk>
+    <bk>
+      <rc t="1" v="94"/>
+    </bk>
+    <bk>
+      <rc t="1" v="95"/>
+    </bk>
+    <bk>
+      <rc t="1" v="96"/>
+    </bk>
+    <bk>
+      <rc t="1" v="97"/>
+    </bk>
+    <bk>
+      <rc t="1" v="98"/>
+    </bk>
+    <bk>
+      <rc t="1" v="99"/>
+    </bk>
+    <bk>
+      <rc t="1" v="100"/>
+    </bk>
+    <bk>
+      <rc t="1" v="101"/>
+    </bk>
+    <bk>
+      <rc t="1" v="102"/>
+    </bk>
+    <bk>
+      <rc t="1" v="103"/>
+    </bk>
+    <bk>
+      <rc t="1" v="104"/>
+    </bk>
+    <bk>
+      <rc t="1" v="105"/>
+    </bk>
+    <bk>
+      <rc t="1" v="106"/>
+    </bk>
+    <bk>
+      <rc t="1" v="107"/>
+    </bk>
+    <bk>
+      <rc t="1" v="108"/>
+    </bk>
+    <bk>
+      <rc t="1" v="109"/>
+    </bk>
+    <bk>
+      <rc t="1" v="110"/>
+    </bk>
+    <bk>
+      <rc t="1" v="111"/>
+    </bk>
+    <bk>
+      <rc t="1" v="112"/>
+    </bk>
+    <bk>
+      <rc t="1" v="113"/>
+    </bk>
+    <bk>
+      <rc t="1" v="114"/>
+    </bk>
+    <bk>
+      <rc t="1" v="115"/>
+    </bk>
+    <bk>
+      <rc t="1" v="116"/>
+    </bk>
+    <bk>
+      <rc t="1" v="117"/>
+    </bk>
+    <bk>
+      <rc t="1" v="118"/>
+    </bk>
+    <bk>
+      <rc t="1" v="119"/>
+    </bk>
+    <bk>
+      <rc t="1" v="120"/>
+    </bk>
+    <bk>
+      <rc t="1" v="121"/>
+    </bk>
+    <bk>
+      <rc t="1" v="122"/>
+    </bk>
+    <bk>
+      <rc t="1" v="123"/>
+    </bk>
+    <bk>
+      <rc t="1" v="124"/>
+    </bk>
+    <bk>
+      <rc t="1" v="125"/>
+    </bk>
+    <bk>
+      <rc t="1" v="126"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="153">
   <si>
     <t>Descriptions</t>
   </si>
@@ -328,6 +1531,186 @@
   </si>
   <si>
     <t>MEAS_APLL_DAYS_REJECTED</t>
+  </si>
+  <si>
+    <t>DCA 1</t>
+  </si>
+  <si>
+    <t>70%-30% with Counter Offer</t>
+  </si>
+  <si>
+    <t>70%-30% without Counter Offer</t>
+  </si>
+  <si>
+    <t>EARTH_Settlement_65+</t>
+  </si>
+  <si>
+    <t>EARTH_Settlement_Small Tickets</t>
+  </si>
+  <si>
+    <t>Had settlement</t>
+  </si>
+  <si>
+    <t>O_70%-30% with Counter Offer</t>
+  </si>
+  <si>
+    <t>O_70%-30% without Counter Offer</t>
+  </si>
+  <si>
+    <t>O_Out of Mandate</t>
+  </si>
+  <si>
+    <t>O_Preapproved</t>
+  </si>
+  <si>
+    <t>O_Settlement</t>
+  </si>
+  <si>
+    <t>O_Απαλλαγή ενεχόμενου</t>
+  </si>
+  <si>
+    <t>O_Διακανονισμός με Επαναδιαπραγμάτευση</t>
+  </si>
+  <si>
+    <t>O_Λογ εξόδων</t>
+  </si>
+  <si>
+    <t>O_N.3869_Προσωρινή Διαταγή</t>
+  </si>
+  <si>
+    <t>Ο_Ν.3869_Συζήτηση</t>
+  </si>
+  <si>
+    <t>Out of Mandate</t>
+  </si>
+  <si>
+    <t>Preapproved</t>
+  </si>
+  <si>
+    <t>Resch to Sett</t>
+  </si>
+  <si>
+    <t>Settlement</t>
+  </si>
+  <si>
+    <t>Διακανονισμός Αποπληρωμής Συνολικής Οφειλής</t>
+  </si>
+  <si>
+    <t>Διακανονισμός με Επαναδιαπραγμάτευση</t>
+  </si>
+  <si>
+    <t>Εφάπαξ Συμβιβαστικές Ρυθμίσεις</t>
+  </si>
+  <si>
+    <t>Λογαριασμός εξόδων</t>
+  </si>
+  <si>
+    <t>Ν.3869_Προστασία Α Κατοικίας</t>
+  </si>
+  <si>
+    <t>Ν.3869_Προσωρινή Διαταγή</t>
+  </si>
+  <si>
+    <t>Ν.3869_Συζήτηση</t>
+  </si>
+  <si>
+    <t>Χρονικές Συμβιβαστικές Ρυθμίσεις</t>
+  </si>
+  <si>
+    <t>*No value</t>
+  </si>
+  <si>
+    <t>DCA 2</t>
+  </si>
+  <si>
+    <t>DCA 3</t>
+  </si>
+  <si>
+    <t>DCA 4</t>
+  </si>
+  <si>
+    <t>DCA 5</t>
+  </si>
+  <si>
+    <t>DCA 6</t>
+  </si>
+  <si>
+    <t>DCA 7</t>
+  </si>
+  <si>
+    <t>DCA 8</t>
+  </si>
+  <si>
+    <t>DCA 9</t>
+  </si>
+  <si>
+    <t>DCA 10</t>
+  </si>
+  <si>
+    <t>DCA 11</t>
+  </si>
+  <si>
+    <t>DCA 12</t>
+  </si>
+  <si>
+    <t>DCA 13</t>
+  </si>
+  <si>
+    <t>DCA 14</t>
+  </si>
+  <si>
+    <t>DCA 15</t>
+  </si>
+  <si>
+    <t>DCA 16</t>
+  </si>
+  <si>
+    <t>DCA 17</t>
+  </si>
+  <si>
+    <t>DCA 18</t>
+  </si>
+  <si>
+    <t>DCA 19</t>
+  </si>
+  <si>
+    <t>DCA 20</t>
+  </si>
+  <si>
+    <t>DCA 21</t>
+  </si>
+  <si>
+    <t>DCA 22</t>
+  </si>
+  <si>
+    <t>DCA 23</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Asset Class</t>
+  </si>
+  <si>
+    <t>Business loans</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Credit cards</t>
+  </si>
+  <si>
+    <t>Expenses accounts</t>
+  </si>
+  <si>
+    <t>Mortgage loans</t>
+  </si>
+  <si>
+    <t>Open loans</t>
+  </si>
+  <si>
+    <t>Overdraft</t>
   </si>
 </sst>
 </file>
@@ -718,373 +2101,373 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319FDA2-137D-4D14-B1AA-140122FAA04B}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1096,6 +2479,65 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C645274-1A31-4362-812E-1DD837CAEF37}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99294B7E-0804-4329-AB8D-4885E2EC85E2}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1103,14 +2545,14 @@
       <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +2563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>87</v>
       </c>
@@ -1129,7 +2571,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -1140,7 +2582,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>90</v>
       </c>
@@ -1151,7 +2593,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>90</v>
       </c>
@@ -1162,7 +2604,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>84</v>
       </c>
@@ -1170,7 +2612,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>85</v>
       </c>
@@ -1184,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94D4A56-ED64-4A15-A3F6-A8011B4A799E}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1192,14 +2634,14 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +2652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>87</v>
       </c>
@@ -1218,7 +2660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>92</v>
       </c>
@@ -1229,7 +2671,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>84</v>
       </c>
@@ -1237,7 +2679,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>85</v>
       </c>
@@ -1257,12 +2699,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1270,7 +2712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +2720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1286,7 +2728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +2736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +2744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1310,7 +2752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1318,7 +2760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +2768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1334,267 +2776,267 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>70</v>
       </c>
@@ -1606,6 +3048,904 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E941BC9-72C2-4FF3-BFB6-CB4393649876}">
+  <dimension ref="A1:D116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" vm="1">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" vm="2">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" vm="3">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s" vm="85">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" vm="4">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s" vm="86">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" vm="5">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s" vm="87">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" vm="6">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s" vm="88">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" vm="7">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s" vm="89">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s" vm="8">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s" vm="90">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s" vm="9">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s" vm="91">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" vm="10">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s" vm="92">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s" vm="11">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s" vm="12">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s" vm="93">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s" vm="13">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s" vm="94">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s" vm="14">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s" vm="95">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s" vm="15">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s" vm="96">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s" vm="16">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s" vm="97">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s" vm="17">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s" vm="98">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s" vm="18">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s" vm="99">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s" vm="19">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s" vm="100">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s" vm="20">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s" vm="21">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s" vm="101">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s" vm="22">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s" vm="102">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s" vm="23">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s" vm="103">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s" vm="24">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s" vm="104">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s" vm="25">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s" vm="105">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s" vm="26">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s" vm="106">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s" vm="27">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s" vm="107">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s" vm="28">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s" vm="108">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s" vm="29">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s" vm="109">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s" vm="30">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s" vm="110">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s" vm="31">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s" vm="111">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s" vm="32">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s" vm="112">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s" vm="33">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s" vm="113">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s" vm="34">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s" vm="114">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s" vm="35">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s" vm="115">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s" vm="36">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s" vm="116">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s" vm="37">
+        <v>102</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s" vm="38">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s" vm="109">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s" vm="39">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s" vm="110">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s" vm="40">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s" vm="111">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s" vm="41">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s" vm="112">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s" vm="42">
+        <v>107</v>
+      </c>
+      <c r="D44" t="s" vm="113">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s" vm="43">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s" vm="114">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s" vm="44">
+        <v>109</v>
+      </c>
+      <c r="D46" t="s" vm="115">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s" vm="45">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s" vm="116">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s" vm="46">
+        <v>111</v>
+      </c>
+      <c r="D48" s="1" t="s" vm="117">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s" vm="47">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s" vm="118">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s" vm="48">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s" vm="119">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s" vm="49">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s" vm="120">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s" vm="50">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s" vm="121">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s" vm="51">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s" vm="122">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s" vm="52">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s" vm="123">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s" vm="53">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s" vm="124">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s" vm="54">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s" vm="125">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s" vm="55">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s" vm="126">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s" vm="56">
+        <v>121</v>
+      </c>
+      <c r="D58" t="s" vm="127">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s" vm="57">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s" vm="58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s" vm="59">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s" vm="60">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s" vm="61">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s" vm="62">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s" vm="63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s" vm="64">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s" vm="65">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s" vm="66">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s" vm="67">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s" vm="68">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s" vm="69">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s" vm="70">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s" vm="71">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s" vm="72">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s" vm="73">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s" vm="74">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s" vm="75">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s" vm="76">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s" vm="77">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s" vm="78">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s" vm="79">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s" vm="80">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s" vm="81">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s" vm="82">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s" vm="83">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s" vm="84">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s" vm="57">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s" vm="58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s" vm="59">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s" vm="60">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s" vm="61">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s" vm="62">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s" vm="63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s" vm="64">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s" vm="65">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s" vm="66">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s" vm="67">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s" vm="68">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s" vm="69">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s" vm="70">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s" vm="71">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s" vm="72">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s" vm="73">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s" vm="74">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s" vm="75">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s" vm="76">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s" vm="77">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s" vm="78">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s" vm="79">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s" vm="80">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s" vm="81">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s" vm="82">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s" vm="83">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s" vm="84">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3823986B-E9F6-4826-9D74-B16FD2828C7B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1613,14 +3953,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1631,52 +3971,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF065B6-A3EC-4C22-B232-59BB1EA66804}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1686,6 +3986,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF065B6-A3EC-4C22-B232-59BB1EA66804}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16B6CC2-3C95-4FCE-892A-EDD1FDCD0CC5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1693,14 +4033,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1711,7 +4051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>75</v>
       </c>
@@ -1719,7 +4059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -1727,7 +4067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>77</v>
       </c>
@@ -1741,7 +4081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB38131A-F41B-4F96-9D0E-EFE8A769AF32}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1749,14 +4089,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1767,7 +4107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>79</v>
       </c>
@@ -1775,7 +4115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>80</v>
       </c>
@@ -1783,7 +4123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>81</v>
       </c>
@@ -1791,7 +4131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>82</v>
       </c>
@@ -1799,7 +4139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>83</v>
       </c>
@@ -1813,7 +4153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B6EA5A-9FC2-4084-A707-EDABA2BBDC06}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1821,12 +4161,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" customWidth="1"/>
+    <col min="1" max="1" width="66.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1837,7 +4177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EB647E-4190-464B-8029-7FFD2C4C16EC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1845,14 +4185,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1863,7 +4203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>84</v>
       </c>
@@ -1871,70 +4211,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C645274-1A31-4362-812E-1DD837CAEF37}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
         <v>62</v>
       </c>
     </row>

--- a/reports/corpus.xlsx
+++ b/reports/corpus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avitsas\Documents\thesis-backup\thesis\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AEFDA1-C3BB-4A68-A889-12AB60DA3953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2189005-2B09-42F9-BC73-F890AA4CA869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{187E2C83-AA30-4404-8C1D-88DFE9242203}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{187E2C83-AA30-4404-8C1D-88DFE9242203}"/>
   </bookViews>
   <sheets>
     <sheet name="corpus" sheetId="1" r:id="rId1"/>
@@ -2101,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319FDA2-137D-4D14-B1AA-140122FAA04B}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -3049,893 +3049,900 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E941BC9-72C2-4FF3-BFB6-CB4393649876}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>93</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" vm="1">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s" vm="1">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s" vm="2">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s" vm="85">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s" vm="3">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s" vm="86">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s" vm="4">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s" vm="87">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s" vm="5">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s" vm="88">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s" vm="6">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s" vm="89">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s" vm="7">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s" vm="90">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s" vm="8">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s" vm="91">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s" vm="9">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s" vm="92">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s" vm="10">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" vm="2">
+      <c r="C12" s="1"/>
+      <c r="D12" t="s" vm="11">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s" vm="93">
+        <v>146</v>
+      </c>
+      <c r="D13" t="s" vm="12">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s" vm="94">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s" vm="13">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s" vm="95">
+        <v>148</v>
+      </c>
+      <c r="D15" t="s" vm="14">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s" vm="96">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s" vm="15">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s" vm="97">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s" vm="16">
+        <v>109</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s" vm="98">
+        <v>151</v>
+      </c>
+      <c r="D18" t="s" vm="17">
+        <v>110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s" vm="99">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s" vm="18">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s" vm="100">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s" vm="19">
+        <v>112</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" t="s" vm="20">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s" vm="101">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s" vm="21">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s" vm="102">
+        <v>147</v>
+      </c>
+      <c r="D23" t="s" vm="22">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s" vm="103">
+        <v>148</v>
+      </c>
+      <c r="D24" t="s" vm="23">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s" vm="104">
+        <v>149</v>
+      </c>
+      <c r="D25" t="s" vm="24">
+        <v>117</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s" vm="105">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s" vm="25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s" vm="106">
+        <v>151</v>
+      </c>
+      <c r="D27" t="s" vm="26">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s" vm="107">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s" vm="27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s" vm="108">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s" vm="28">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s" vm="109">
+        <v>146</v>
+      </c>
+      <c r="D31" t="s" vm="29">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s" vm="110">
+        <v>147</v>
+      </c>
+      <c r="D32" t="s" vm="30">
         <v>95</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s" vm="111">
+        <v>148</v>
+      </c>
+      <c r="D33" t="s" vm="31">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s" vm="112">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s" vm="32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s" vm="113">
+        <v>150</v>
+      </c>
+      <c r="D35" t="s" vm="33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s" vm="114">
+        <v>151</v>
+      </c>
+      <c r="D36" t="s" vm="34">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s" vm="115">
+        <v>152</v>
+      </c>
+      <c r="D37" t="s" vm="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s" vm="116">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s" vm="36">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" t="s" vm="37">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s" vm="109">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s" vm="38">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s" vm="110">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s" vm="39">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s" vm="111">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s" vm="40">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s" vm="112">
+        <v>149</v>
+      </c>
+      <c r="D43" t="s" vm="41">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s" vm="113">
+        <v>150</v>
+      </c>
+      <c r="D44" t="s" vm="42">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s" vm="114">
+        <v>151</v>
+      </c>
+      <c r="D45" t="s" vm="43">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s" vm="115">
+        <v>152</v>
+      </c>
+      <c r="D46" t="s" vm="44">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s" vm="116">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s" vm="45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s" vm="117">
+        <v>121</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s" vm="46">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s" vm="118">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s" vm="47">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s" vm="119">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s" vm="48">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s" vm="120">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s" vm="49">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s" vm="121">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s" vm="50">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s" vm="122">
+        <v>149</v>
+      </c>
+      <c r="D53" t="s" vm="51">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s" vm="123">
+        <v>150</v>
+      </c>
+      <c r="D54" t="s" vm="52">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s" vm="124">
+        <v>151</v>
+      </c>
+      <c r="D55" t="s" vm="53">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s" vm="125">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s" vm="54">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s" vm="126">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s" vm="55">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s" vm="127">
+        <v>144</v>
+      </c>
+      <c r="D58" t="s" vm="56">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" vm="3">
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D60" t="s" vm="57">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D61" t="s" vm="58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D62" t="s" vm="59">
         <v>96</v>
       </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" t="s" vm="85">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" vm="4">
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D63" t="s" vm="60">
         <v>97</v>
       </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" t="s" vm="86">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" vm="5">
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D64" t="s" vm="61">
         <v>98</v>
       </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" t="s" vm="87">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" vm="6">
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" t="s" vm="62">
         <v>99</v>
       </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s" vm="88">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" vm="7">
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" t="s" vm="63">
         <v>100</v>
       </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" t="s" vm="89">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" vm="8">
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" t="s" vm="64">
         <v>101</v>
       </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" t="s" vm="90">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" vm="9">
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s" vm="65">
         <v>102</v>
       </c>
-      <c r="B10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" t="s" vm="91">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" vm="10">
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s" vm="66">
         <v>103</v>
       </c>
-      <c r="B11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" t="s" vm="92">
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" t="s" vm="67">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s" vm="68">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s" vm="69">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73" t="s" vm="70">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D74" t="s" vm="71">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75" t="s" vm="72">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76" t="s" vm="73">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D77" t="s" vm="74">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s" vm="75">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D79" t="s" vm="76">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80" t="s" vm="77">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" t="s" vm="78">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" t="s" vm="79">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83" t="s" vm="80">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" t="s" vm="81">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85" t="s" vm="82">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86" t="s" vm="83">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87" t="s" vm="84">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" vm="11">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D89" t="s" vm="57">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D90" t="s" vm="58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D91" t="s" vm="59">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D92" t="s" vm="60">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D93" t="s" vm="61">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D94" t="s" vm="62">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D95" t="s" vm="63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D96" t="s" vm="64">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" t="s" vm="65">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" t="s" vm="66">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" t="s" vm="67">
         <v>104</v>
       </c>
-      <c r="B12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" vm="12">
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" t="s" vm="68">
         <v>105</v>
       </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" t="s" vm="93">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" vm="13">
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D101" t="s" vm="69">
         <v>106</v>
       </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s" vm="94">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" vm="14">
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D102" t="s" vm="70">
         <v>107</v>
       </c>
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" t="s" vm="95">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" vm="15">
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D103" t="s" vm="71">
         <v>108</v>
       </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" t="s" vm="96">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" vm="16">
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D104" t="s" vm="72">
         <v>109</v>
       </c>
-      <c r="B17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" t="s" vm="97">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" vm="17">
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D105" t="s" vm="73">
         <v>110</v>
       </c>
-      <c r="B18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" t="s" vm="98">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" vm="18">
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D106" t="s" vm="74">
         <v>111</v>
       </c>
-      <c r="B19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" t="s" vm="99">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" vm="19">
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D107" t="s" vm="75">
         <v>112</v>
       </c>
-      <c r="B20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" t="s" vm="100">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" vm="20">
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D108" t="s" vm="76">
         <v>113</v>
       </c>
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s" vm="21">
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D109" t="s" vm="77">
         <v>114</v>
       </c>
-      <c r="B22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" t="s" vm="101">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s" vm="22">
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D110" t="s" vm="78">
         <v>115</v>
       </c>
-      <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" t="s" vm="102">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s" vm="23">
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D111" t="s" vm="79">
         <v>116</v>
       </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" t="s" vm="103">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s" vm="24">
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D112" t="s" vm="80">
         <v>117</v>
       </c>
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" t="s" vm="104">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s" vm="25">
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D113" t="s" vm="81">
         <v>118</v>
       </c>
-      <c r="D26" t="s" vm="105">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s" vm="26">
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D114" t="s" vm="82">
         <v>119</v>
       </c>
-      <c r="D27" t="s" vm="106">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s" vm="27">
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D115" t="s" vm="83">
         <v>120</v>
       </c>
-      <c r="D28" t="s" vm="107">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s" vm="28">
-        <v>121</v>
-      </c>
-      <c r="D29" t="s" vm="108">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s" vm="29">
-        <v>94</v>
-      </c>
-      <c r="D31" t="s" vm="109">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s" vm="30">
-        <v>95</v>
-      </c>
-      <c r="D32" t="s" vm="110">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s" vm="31">
-        <v>96</v>
-      </c>
-      <c r="D33" t="s" vm="111">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s" vm="32">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s" vm="112">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s" vm="33">
-        <v>98</v>
-      </c>
-      <c r="D35" t="s" vm="113">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s" vm="34">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s" vm="114">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s" vm="35">
-        <v>100</v>
-      </c>
-      <c r="D37" t="s" vm="115">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s" vm="36">
-        <v>101</v>
-      </c>
-      <c r="D38" t="s" vm="116">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s" vm="37">
-        <v>102</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s" vm="38">
-        <v>103</v>
-      </c>
-      <c r="D40" t="s" vm="109">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s" vm="39">
-        <v>104</v>
-      </c>
-      <c r="D41" t="s" vm="110">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s" vm="40">
-        <v>105</v>
-      </c>
-      <c r="D42" t="s" vm="111">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s" vm="41">
-        <v>106</v>
-      </c>
-      <c r="D43" t="s" vm="112">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s" vm="42">
-        <v>107</v>
-      </c>
-      <c r="D44" t="s" vm="113">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s" vm="43">
-        <v>108</v>
-      </c>
-      <c r="D45" t="s" vm="114">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s" vm="44">
-        <v>109</v>
-      </c>
-      <c r="D46" t="s" vm="115">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s" vm="45">
-        <v>110</v>
-      </c>
-      <c r="D47" t="s" vm="116">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s" vm="46">
-        <v>111</v>
-      </c>
-      <c r="D48" s="1" t="s" vm="117">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s" vm="47">
-        <v>112</v>
-      </c>
-      <c r="D49" t="s" vm="118">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s" vm="48">
-        <v>113</v>
-      </c>
-      <c r="D50" t="s" vm="119">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s" vm="49">
-        <v>114</v>
-      </c>
-      <c r="D51" t="s" vm="120">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s" vm="50">
-        <v>115</v>
-      </c>
-      <c r="D52" t="s" vm="121">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s" vm="51">
-        <v>116</v>
-      </c>
-      <c r="D53" t="s" vm="122">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s" vm="52">
-        <v>117</v>
-      </c>
-      <c r="D54" t="s" vm="123">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s" vm="53">
-        <v>118</v>
-      </c>
-      <c r="D55" t="s" vm="124">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s" vm="54">
-        <v>119</v>
-      </c>
-      <c r="D56" t="s" vm="125">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s" vm="55">
-        <v>120</v>
-      </c>
-      <c r="D57" t="s" vm="126">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s" vm="56">
-        <v>121</v>
-      </c>
-      <c r="D58" t="s" vm="127">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s" vm="57">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s" vm="58">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s" vm="59">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s" vm="60">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s" vm="61">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s" vm="62">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s" vm="63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s" vm="64">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s" vm="65">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s" vm="66">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s" vm="67">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s" vm="68">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s" vm="69">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s" vm="70">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s" vm="71">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s" vm="72">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s" vm="73">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s" vm="74">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s" vm="75">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s" vm="76">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s" vm="77">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s" vm="78">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s" vm="79">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s" vm="80">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s" vm="81">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s" vm="82">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s" vm="83">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s" vm="84">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s" vm="57">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s" vm="58">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s" vm="59">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s" vm="60">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s" vm="61">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s" vm="62">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s" vm="63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s" vm="64">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s" vm="65">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s" vm="66">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s" vm="67">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s" vm="68">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s" vm="69">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s" vm="70">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s" vm="71">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s" vm="72">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s" vm="73">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s" vm="74">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s" vm="75">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s" vm="76">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s" vm="77">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s" vm="78">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s" vm="79">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s" vm="80">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s" vm="81">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s" vm="82">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s" vm="83">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s" vm="84">
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D116" t="s" vm="84">
         <v>121</v>
       </c>
     </row>
